--- a/temp/Журнал 24.06.2024.xlsx
+++ b/temp/Журнал 24.06.2024.xlsx
@@ -84,6 +84,21 @@
   <si>
     <t xml:space="preserve">Медицинский осмотр,Поргружение в 
 производственную безопасность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.06.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45687</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">01:51</t>
   </si>
 </sst>
 </file>
@@ -595,6 +610,100 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5"/>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6"/>
+      <c r="H6"/>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7"/>
+      <c r="H7"/>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8"/>
+      <c r="H8"/>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
